--- a/assembly/World_s Slowest Computer Worksheet.xlsx
+++ b/assembly/World_s Slowest Computer Worksheet.xlsx
@@ -472,11 +472,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -790,147 +793,162 @@
       <c r="I2" s="1">
         <v>7.0</v>
       </c>
+      <c r="J2" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="3" ht="36.0" customHeight="1">
       <c r="A3" s="1">
         <v>0.0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="36.0" customHeight="1">
       <c r="A4" s="1">
         <v>1.0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="36.0" customHeight="1">
       <c r="A5" s="1">
         <v>2.0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" ht="36.0" customHeight="1">
       <c r="A6" s="1">
         <v>3.0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" ht="36.0" customHeight="1">
       <c r="A7" s="1">
         <v>4.0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="36.0" customHeight="1">
       <c r="A8" s="1">
         <v>5.0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" ht="36.0" customHeight="1">
       <c r="A9" s="1">
         <v>6.0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" ht="36.0" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" ht="36.0" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" ht="36.0" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1946,124 +1964,124 @@
     </row>
     <row r="2" ht="20.25" customHeight="1"/>
     <row r="3" ht="36.0" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="36.0" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="36.0" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" ht="36.0" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" ht="36.0" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="36.0" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" ht="36.0" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" ht="36.0" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" ht="36.0" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" ht="36.0" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -3078,204 +3096,204 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -4293,612 +4311,612 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>0.0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>11.0</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>12.0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>13.0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>14.0</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>15.0</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>16.0</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>17.0</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <v>18.0</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>19.0</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>20.0</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <v>21.0</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>22.0</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>23.0</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>24.0</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>25.0</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>26.0</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <v>27.0</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <v>28.0</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9">
+      <c r="A34" s="10">
         <v>29.0</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9">
+      <c r="A35" s="10">
         <v>30.0</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9">
+      <c r="A36" s="10">
         <v>31.0</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9">
+      <c r="A37" s="10">
         <v>32.0</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <v>33.0</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <v>34.0</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <v>35.0</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <v>36.0</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <v>37.0</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9">
+      <c r="A43" s="10">
         <v>38.0</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="10">
         <v>39.0</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9">
+      <c r="A45" s="10">
         <v>40.0</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9">
+      <c r="A46" s="10">
         <v>41.0</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9">
+      <c r="A47" s="10">
         <v>42.0</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9">
+      <c r="A48" s="10">
         <v>43.0</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9">
+      <c r="A49" s="10">
         <v>44.0</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9">
+      <c r="A50" s="10">
         <v>45.0</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9">
+      <c r="A51" s="10">
         <v>46.0</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9">
+      <c r="A52" s="10">
         <v>47.0</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="9">
+      <c r="A53" s="10">
         <v>48.0</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9">
+      <c r="A54" s="10">
         <v>49.0</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="9">
+      <c r="A55" s="10">
         <v>50.0</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="9">
+      <c r="A56" s="10">
         <v>51.0</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="9">
+      <c r="A57" s="10">
         <v>52.0</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="9">
+      <c r="A58" s="10">
         <v>53.0</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5869,204 +5887,204 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -7084,117 +7102,117 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>0.0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8209,126 +8227,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1"/>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9.0</v>
+      </c>
+    </row>
     <row r="3" ht="36.0" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="36.0" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="36.0" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" ht="36.0" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" ht="36.0" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="36.0" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" ht="36.0" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" ht="36.0" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" ht="36.0" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" ht="36.0" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -9343,204 +9422,204 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -10558,205 +10637,205 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>0.0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>11.0</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>12.0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>13.0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>14.0</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>15.0</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>16.0</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11765,124 +11844,124 @@
     </row>
     <row r="2" ht="20.25" customHeight="1"/>
     <row r="3" ht="36.0" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="36.0" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" ht="36.0" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" ht="36.0" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" ht="36.0" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="36.0" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" ht="36.0" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" ht="36.0" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" ht="36.0" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" ht="36.0" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -12897,204 +12976,204 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -14112,326 +14191,326 @@
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>0.0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>11.0</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>12.0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>13.0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>14.0</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>15.0</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>16.0</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>17.0</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <v>18.0</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>19.0</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>20.0</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <v>21.0</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>22.0</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>23.0</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>24.0</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>25.0</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>26.0</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <v>27.0</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>41</v>
       </c>
     </row>
